--- a/input_sample/lpce_sample.xlsx
+++ b/input_sample/lpce_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digestion\tiny_ssu_calc\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digestion\tiny_ssu_calc\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,16 +26,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>pcExPceD_temp_avg</t>
+    <t>ex_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pcExPceD_thick</t>
+    <t>ex_width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pcExPceD_tension</t>
+    <t>ex_thick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pcExPceD_width</t>
+    <t>ex_tension</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +373,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -385,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
